--- a/polyakov/2021-04-23/27a-polyakov.xlsx
+++ b/polyakov/2021-04-23/27a-polyakov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Py_scr\stat_grad\Informatics\undefined\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Py_scr\stat_grad\Informatics\polyakov\2021-04-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,8 @@
   <sheets>
     <sheet name="27a-polyakov" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +515,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -844,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +852,7 @@
     <col min="1" max="3" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>749</v>
       </c>
@@ -886,11 +883,11 @@
         <v>926</v>
       </c>
       <c r="I1">
-        <f t="shared" ref="I1:J1" si="0">ABS($G1-E1)</f>
+        <f>ABS($G1-E1)</f>
         <v>719</v>
       </c>
       <c r="J1" s="1">
-        <f t="shared" si="0"/>
+        <f>ABS($G1-F1)</f>
         <v>0</v>
       </c>
       <c r="K1">
@@ -898,15 +895,39 @@
         <v>926</v>
       </c>
       <c r="L1">
-        <f t="shared" ref="L1:M16" si="1">IF(AND(I1&gt;0,MOD(I1,4)=2),I1,99999)</f>
+        <f>IF(AND(I1&gt;0,MOD(I1,4)=2),I1,99999)</f>
         <v>99999</v>
       </c>
       <c r="M1">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J1&gt;0,MOD(J1,4)=2),J1,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N1">
+        <f>IF(AND(H1&gt;0,MOD(H1,4)=3),H1,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O1">
+        <f>IF(AND(I1&gt;0,MOD(I1,4)=3),I1,9999)</f>
+        <v>719</v>
+      </c>
+      <c r="P1">
+        <f>IF(AND(J1&gt;0,MOD(J1,4)=3),J1,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q1">
+        <f>IF(AND(H1&gt;0,MOD(H1,4)=1),H1,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R1">
+        <f>IF(AND(I1&gt;0,MOD(I1,4)=1),I1,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S1">
+        <f>IF(AND(J1&gt;0,MOD(J1,4)=1),J1,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>733</v>
       </c>
@@ -933,31 +954,55 @@
         <v>1558</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H20" si="2">ABS($G2-D2)</f>
+        <f>ABS($G2-D2)</f>
         <v>690</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I20" si="3">ABS($G2-E2)</f>
+        <f>ABS($G2-E2)</f>
         <v>598</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J20" si="4">ABS($G2-F2)</f>
+        <f>ABS($G2-F2)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K20" si="5">IF(AND(H2&gt;0,MOD(H2,4)=2),H2,99999)</f>
+        <f>IF(AND(H2&gt;0,MOD(H2,4)=2),H2,99999)</f>
         <v>690</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I2&gt;0,MOD(I2,4)=2),I2,99999)</f>
         <v>598</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J2&gt;0,MOD(J2,4)=2),J2,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N2">
+        <f>IF(AND(H2&gt;0,MOD(H2,4)=3),H2,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O2">
+        <f>IF(AND(I2&gt;0,MOD(I2,4)=3),I2,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P2">
+        <f>IF(AND(J2&gt;0,MOD(J2,4)=3),J2,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q2">
+        <f>IF(AND(H2&gt;0,MOD(H2,4)=1),H2,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R2">
+        <f>IF(AND(I2&gt;0,MOD(I2,4)=1),I2,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S2">
+        <f>IF(AND(J2&gt;0,MOD(J2,4)=1),J2,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>939</v>
       </c>
@@ -984,31 +1029,55 @@
         <v>1411</v>
       </c>
       <c r="H3">
-        <f t="shared" si="2"/>
+        <f>ABS($G3-D3)</f>
         <v>440</v>
       </c>
       <c r="I3">
-        <f t="shared" si="3"/>
+        <f>ABS($G3-E3)</f>
         <v>907</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G3-F3)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H3&gt;0,MOD(H3,4)=2),H3,99999)</f>
         <v>99999</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I3&gt;0,MOD(I3,4)=2),I3,99999)</f>
         <v>99999</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J3&gt;0,MOD(J3,4)=2),J3,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N3">
+        <f>IF(AND(H3&gt;0,MOD(H3,4)=3),H3,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O3">
+        <f>IF(AND(I3&gt;0,MOD(I3,4)=3),I3,9999)</f>
+        <v>907</v>
+      </c>
+      <c r="P3">
+        <f>IF(AND(J3&gt;0,MOD(J3,4)=3),J3,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q3">
+        <f>IF(AND(H3&gt;0,MOD(H3,4)=1),H3,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R3">
+        <f>IF(AND(I3&gt;0,MOD(I3,4)=1),I3,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S3">
+        <f>IF(AND(J3&gt;0,MOD(J3,4)=1),J3,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>772</v>
       </c>
@@ -1035,31 +1104,55 @@
         <v>1220</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f>ABS($G4-D4)</f>
         <v>411</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f>ABS($G4-E4)</f>
         <v>735</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G4-F4)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H4&gt;0,MOD(H4,4)=2),H4,99999)</f>
         <v>99999</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I4&gt;0,MOD(I4,4)=2),I4,99999)</f>
         <v>99999</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J4&gt;0,MOD(J4,4)=2),J4,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N4">
+        <f>IF(AND(H4&gt;0,MOD(H4,4)=3),H4,9999)</f>
+        <v>411</v>
+      </c>
+      <c r="O4">
+        <f>IF(AND(I4&gt;0,MOD(I4,4)=3),I4,9999)</f>
+        <v>735</v>
+      </c>
+      <c r="P4">
+        <f>IF(AND(J4&gt;0,MOD(J4,4)=3),J4,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q4">
+        <f>IF(AND(H4&gt;0,MOD(H4,4)=1),H4,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R4">
+        <f>IF(AND(I4&gt;0,MOD(I4,4)=1),I4,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S4">
+        <f>IF(AND(J4&gt;0,MOD(J4,4)=1),J4,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>885</v>
       </c>
@@ -1086,31 +1179,55 @@
         <v>1098</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f>ABS($G5-D5)</f>
         <v>107</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f>ABS($G5-E5)</f>
         <v>779</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G5-F5)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H5&gt;0,MOD(H5,4)=2),H5,99999)</f>
         <v>99999</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I5&gt;0,MOD(I5,4)=2),I5,99999)</f>
         <v>99999</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J5&gt;0,MOD(J5,4)=2),J5,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N5">
+        <f>IF(AND(H5&gt;0,MOD(H5,4)=3),H5,9999)</f>
+        <v>107</v>
+      </c>
+      <c r="O5">
+        <f>IF(AND(I5&gt;0,MOD(I5,4)=3),I5,9999)</f>
+        <v>779</v>
+      </c>
+      <c r="P5">
+        <f>IF(AND(J5&gt;0,MOD(J5,4)=3),J5,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q5">
+        <f>IF(AND(H5&gt;0,MOD(H5,4)=1),H5,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R5">
+        <f>IF(AND(I5&gt;0,MOD(I5,4)=1),I5,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S5">
+        <f>IF(AND(J5&gt;0,MOD(J5,4)=1),J5,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>458</v>
       </c>
@@ -1137,31 +1254,55 @@
         <v>1096</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f>ABS($G6-D6)</f>
         <v>534</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f>ABS($G6-E6)</f>
         <v>354</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G6-F6)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H6&gt;0,MOD(H6,4)=2),H6,99999)</f>
         <v>534</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I6&gt;0,MOD(I6,4)=2),I6,99999)</f>
         <v>354</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J6&gt;0,MOD(J6,4)=2),J6,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N6">
+        <f>IF(AND(H6&gt;0,MOD(H6,4)=3),H6,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O6">
+        <f>IF(AND(I6&gt;0,MOD(I6,4)=3),I6,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P6">
+        <f>IF(AND(J6&gt;0,MOD(J6,4)=3),J6,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q6">
+        <f>IF(AND(H6&gt;0,MOD(H6,4)=1),H6,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R6">
+        <f>IF(AND(I6&gt;0,MOD(I6,4)=1),I6,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S6">
+        <f>IF(AND(J6&gt;0,MOD(J6,4)=1),J6,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>646</v>
       </c>
@@ -1188,31 +1329,55 @@
         <v>1078</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f>ABS($G7-D7)</f>
         <v>147</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f>ABS($G7-E7)</f>
         <v>361</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G7-F7)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H7&gt;0,MOD(H7,4)=2),H7,99999)</f>
         <v>99999</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I7&gt;0,MOD(I7,4)=2),I7,99999)</f>
         <v>99999</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J7&gt;0,MOD(J7,4)=2),J7,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N7">
+        <f>IF(AND(H7&gt;0,MOD(H7,4)=3),H7,9999)</f>
+        <v>147</v>
+      </c>
+      <c r="O7">
+        <f>IF(AND(I7&gt;0,MOD(I7,4)=3),I7,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P7">
+        <f>IF(AND(J7&gt;0,MOD(J7,4)=3),J7,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q7">
+        <f>IF(AND(H7&gt;0,MOD(H7,4)=1),H7,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R7">
+        <f>IF(AND(I7&gt;0,MOD(I7,4)=1),I7,9999)</f>
+        <v>361</v>
+      </c>
+      <c r="S7">
+        <f>IF(AND(J7&gt;0,MOD(J7,4)=1),J7,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>399</v>
       </c>
@@ -1239,31 +1404,55 @@
         <v>1012</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f>ABS($G8-D8)</f>
         <v>477</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f>ABS($G8-E8)</f>
         <v>263</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G8-F8)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H8&gt;0,MOD(H8,4)=2),H8,99999)</f>
         <v>99999</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I8&gt;0,MOD(I8,4)=2),I8,99999)</f>
         <v>99999</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J8&gt;0,MOD(J8,4)=2),J8,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N8">
+        <f>IF(AND(H8&gt;0,MOD(H8,4)=3),H8,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O8">
+        <f>IF(AND(I8&gt;0,MOD(I8,4)=3),I8,9999)</f>
+        <v>263</v>
+      </c>
+      <c r="P8">
+        <f>IF(AND(J8&gt;0,MOD(J8,4)=3),J8,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q8">
+        <f>IF(AND(H8&gt;0,MOD(H8,4)=1),H8,9999)</f>
+        <v>477</v>
+      </c>
+      <c r="R8">
+        <f>IF(AND(I8&gt;0,MOD(I8,4)=1),I8,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S8">
+        <f>IF(AND(J8&gt;0,MOD(J8,4)=1),J8,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>671</v>
       </c>
@@ -1290,31 +1479,55 @@
         <v>986</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G9-D9)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f>ABS($G9-E9)</f>
         <v>463</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f>ABS($G9-F9)</f>
         <v>107</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H9&gt;0,MOD(H9,4)=2),H9,99999)</f>
         <v>99999</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I9&gt;0,MOD(I9,4)=2),I9,99999)</f>
         <v>99999</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J9&gt;0,MOD(J9,4)=2),J9,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N9">
+        <f>IF(AND(H9&gt;0,MOD(H9,4)=3),H9,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O9">
+        <f>IF(AND(I9&gt;0,MOD(I9,4)=3),I9,9999)</f>
+        <v>463</v>
+      </c>
+      <c r="P9">
+        <f>IF(AND(J9&gt;0,MOD(J9,4)=3),J9,9999)</f>
+        <v>107</v>
+      </c>
+      <c r="Q9">
+        <f>IF(AND(H9&gt;0,MOD(H9,4)=1),H9,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R9">
+        <f>IF(AND(I9&gt;0,MOD(I9,4)=1),I9,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S9">
+        <f>IF(AND(J9&gt;0,MOD(J9,4)=1),J9,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>542</v>
       </c>
@@ -1341,31 +1554,55 @@
         <v>958</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f>ABS($G10-D10)</f>
         <v>383</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f>ABS($G10-E10)</f>
         <v>509</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G10-F10)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H10&gt;0,MOD(H10,4)=2),H10,99999)</f>
         <v>99999</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I10&gt;0,MOD(I10,4)=2),I10,99999)</f>
         <v>99999</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J10&gt;0,MOD(J10,4)=2),J10,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N10">
+        <f>IF(AND(H10&gt;0,MOD(H10,4)=3),H10,9999)</f>
+        <v>383</v>
+      </c>
+      <c r="O10">
+        <f>IF(AND(I10&gt;0,MOD(I10,4)=3),I10,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P10">
+        <f>IF(AND(J10&gt;0,MOD(J10,4)=3),J10,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q10">
+        <f>IF(AND(H10&gt;0,MOD(H10,4)=1),H10,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R10">
+        <f>IF(AND(I10&gt;0,MOD(I10,4)=1),I10,9999)</f>
+        <v>509</v>
+      </c>
+      <c r="S10">
+        <f>IF(AND(J10&gt;0,MOD(J10,4)=1),J10,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>203</v>
       </c>
@@ -1392,31 +1629,55 @@
         <v>895</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G11-D11)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f>ABS($G11-E11)</f>
         <v>120</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f>ABS($G11-F11)</f>
         <v>609</v>
       </c>
       <c r="K11">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H11&gt;0,MOD(H11,4)=2),H11,99999)</f>
         <v>99999</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I11&gt;0,MOD(I11,4)=2),I11,99999)</f>
         <v>99999</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J11&gt;0,MOD(J11,4)=2),J11,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N11">
+        <f>IF(AND(H11&gt;0,MOD(H11,4)=3),H11,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O11">
+        <f>IF(AND(I11&gt;0,MOD(I11,4)=3),I11,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P11">
+        <f>IF(AND(J11&gt;0,MOD(J11,4)=3),J11,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q11">
+        <f>IF(AND(H11&gt;0,MOD(H11,4)=1),H11,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R11">
+        <f>IF(AND(I11&gt;0,MOD(I11,4)=1),I11,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S11">
+        <f>IF(AND(J11&gt;0,MOD(J11,4)=1),J11,9999)</f>
+        <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>550</v>
       </c>
@@ -1443,31 +1704,55 @@
         <v>893</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G12-D12)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f>ABS($G12-E12)</f>
         <v>448</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f>ABS($G12-F12)</f>
         <v>241</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H12&gt;0,MOD(H12,4)=2),H12,99999)</f>
         <v>99999</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I12&gt;0,MOD(I12,4)=2),I12,99999)</f>
         <v>99999</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J12&gt;0,MOD(J12,4)=2),J12,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N12">
+        <f>IF(AND(H12&gt;0,MOD(H12,4)=3),H12,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O12">
+        <f>IF(AND(I12&gt;0,MOD(I12,4)=3),I12,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P12">
+        <f>IF(AND(J12&gt;0,MOD(J12,4)=3),J12,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q12">
+        <f>IF(AND(H12&gt;0,MOD(H12,4)=1),H12,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R12">
+        <f>IF(AND(I12&gt;0,MOD(I12,4)=1),I12,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S12">
+        <f>IF(AND(J12&gt;0,MOD(J12,4)=1),J12,9999)</f>
+        <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>473</v>
       </c>
@@ -1494,31 +1779,55 @@
         <v>770</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G13-D13)</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f>ABS($G13-E13)</f>
         <v>420</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f>ABS($G13-F13)</f>
         <v>244</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H13&gt;0,MOD(H13,4)=2),H13,99999)</f>
         <v>99999</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I13&gt;0,MOD(I13,4)=2),I13,99999)</f>
         <v>99999</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J13&gt;0,MOD(J13,4)=2),J13,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N13">
+        <f>IF(AND(H13&gt;0,MOD(H13,4)=3),H13,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O13">
+        <f>IF(AND(I13&gt;0,MOD(I13,4)=3),I13,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P13">
+        <f>IF(AND(J13&gt;0,MOD(J13,4)=3),J13,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q13">
+        <f>IF(AND(H13&gt;0,MOD(H13,4)=1),H13,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R13">
+        <f>IF(AND(I13&gt;0,MOD(I13,4)=1),I13,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S13">
+        <f>IF(AND(J13&gt;0,MOD(J13,4)=1),J13,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>421</v>
       </c>
@@ -1545,31 +1854,55 @@
         <v>656</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f>ABS($G14-D14)</f>
         <v>163</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f>ABS($G14-E14)</f>
         <v>349</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G14-F14)</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H14&gt;0,MOD(H14,4)=2),H14,99999)</f>
         <v>99999</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I14&gt;0,MOD(I14,4)=2),I14,99999)</f>
         <v>99999</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J14&gt;0,MOD(J14,4)=2),J14,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N14">
+        <f>IF(AND(H14&gt;0,MOD(H14,4)=3),H14,9999)</f>
+        <v>163</v>
+      </c>
+      <c r="O14">
+        <f>IF(AND(I14&gt;0,MOD(I14,4)=3),I14,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P14">
+        <f>IF(AND(J14&gt;0,MOD(J14,4)=3),J14,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q14">
+        <f>IF(AND(H14&gt;0,MOD(H14,4)=1),H14,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R14">
+        <f>IF(AND(I14&gt;0,MOD(I14,4)=1),I14,9999)</f>
+        <v>349</v>
+      </c>
+      <c r="S14">
+        <f>IF(AND(J14&gt;0,MOD(J14,4)=1),J14,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>373</v>
       </c>
@@ -1596,31 +1929,55 @@
         <v>551</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G15-D15)</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f>ABS($G15-E15)</f>
         <v>248</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f>ABS($G15-F15)</f>
         <v>53</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H15&gt;0,MOD(H15,4)=2),H15,99999)</f>
         <v>99999</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I15&gt;0,MOD(I15,4)=2),I15,99999)</f>
         <v>99999</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J15&gt;0,MOD(J15,4)=2),J15,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N15">
+        <f>IF(AND(H15&gt;0,MOD(H15,4)=3),H15,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O15">
+        <f>IF(AND(I15&gt;0,MOD(I15,4)=3),I15,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P15">
+        <f>IF(AND(J15&gt;0,MOD(J15,4)=3),J15,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q15">
+        <f>IF(AND(H15&gt;0,MOD(H15,4)=1),H15,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R15">
+        <f>IF(AND(I15&gt;0,MOD(I15,4)=1),I15,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S15" s="3">
+        <f>IF(AND(J15&gt;0,MOD(J15,4)=1),J15,9999)</f>
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>352</v>
       </c>
@@ -1647,31 +2004,55 @@
         <v>526</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f>ABS($G16-D16)</f>
         <v>41</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f>ABS($G16-E16)</f>
         <v>219</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G16-F16)</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H16&gt;0,MOD(H16,4)=2),H16,99999)</f>
         <v>99999</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I16&gt;0,MOD(I16,4)=2),I16,99999)</f>
         <v>99999</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>99999</v>
+        <f>IF(AND(J16&gt;0,MOD(J16,4)=2),J16,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N16">
+        <f>IF(AND(H16&gt;0,MOD(H16,4)=3),H16,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O16">
+        <f>IF(AND(I16&gt;0,MOD(I16,4)=3),I16,9999)</f>
+        <v>219</v>
+      </c>
+      <c r="P16">
+        <f>IF(AND(J16&gt;0,MOD(J16,4)=3),J16,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>IF(AND(H16&gt;0,MOD(H16,4)=1),H16,9999)</f>
+        <v>41</v>
+      </c>
+      <c r="R16">
+        <f>IF(AND(I16&gt;0,MOD(I16,4)=1),I16,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S16">
+        <f>IF(AND(J16&gt;0,MOD(J16,4)=1),J16,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>208</v>
       </c>
@@ -1698,31 +2079,55 @@
         <v>524</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G17-D17)</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f>ABS($G17-E17)</f>
         <v>44</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f>ABS($G17-F17)</f>
         <v>152</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H17&gt;0,MOD(H17,4)=2),H17,99999)</f>
         <v>99999</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L20" si="6">IF(AND(I17&gt;0,MOD(I17,4)=2),I17,99999)</f>
+        <f>IF(AND(I17&gt;0,MOD(I17,4)=2),I17,99999)</f>
         <v>99999</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M20" si="7">IF(AND(J17&gt;0,MOD(J17,4)=2),J17,99999)</f>
-        <v>99999</v>
+        <f>IF(AND(J17&gt;0,MOD(J17,4)=2),J17,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N17">
+        <f>IF(AND(H17&gt;0,MOD(H17,4)=3),H17,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O17">
+        <f>IF(AND(I17&gt;0,MOD(I17,4)=3),I17,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P17">
+        <f>IF(AND(J17&gt;0,MOD(J17,4)=3),J17,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q17">
+        <f>IF(AND(H17&gt;0,MOD(H17,4)=1),H17,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R17">
+        <f>IF(AND(I17&gt;0,MOD(I17,4)=1),I17,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S17">
+        <f>IF(AND(J17&gt;0,MOD(J17,4)=1),J17,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>216</v>
       </c>
@@ -1749,31 +2154,55 @@
         <v>516</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f>ABS($G18-D18)</f>
         <v>141</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f>ABS($G18-E18)</f>
         <v>57</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="4"/>
+        <f>ABS($G18-F18)</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H18&gt;0,MOD(H18,4)=2),H18,99999)</f>
         <v>99999</v>
       </c>
       <c r="L18">
-        <f t="shared" si="6"/>
+        <f>IF(AND(I18&gt;0,MOD(I18,4)=2),I18,99999)</f>
         <v>99999</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
-        <v>99999</v>
+        <f>IF(AND(J18&gt;0,MOD(J18,4)=2),J18,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N18">
+        <f>IF(AND(H18&gt;0,MOD(H18,4)=3),H18,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O18">
+        <f>IF(AND(I18&gt;0,MOD(I18,4)=3),I18,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P18">
+        <f>IF(AND(J18&gt;0,MOD(J18,4)=3),J18,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q18">
+        <f>IF(AND(H18&gt;0,MOD(H18,4)=1),H18,9999)</f>
+        <v>141</v>
+      </c>
+      <c r="R18">
+        <f>IF(AND(I18&gt;0,MOD(I18,4)=1),I18,9999)</f>
+        <v>57</v>
+      </c>
+      <c r="S18">
+        <f>IF(AND(J18&gt;0,MOD(J18,4)=1),J18,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>298</v>
       </c>
@@ -1800,31 +2229,55 @@
         <v>515</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G19-D19)</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f>ABS($G19-E19)</f>
         <v>190</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f>ABS($G19-F19)</f>
         <v>109</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
-        <v>99999</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="6"/>
+        <f>IF(AND(H19&gt;0,MOD(H19,4)=2),H19,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="L19" s="3">
+        <f>IF(AND(I19&gt;0,MOD(I19,4)=2),I19,99999)</f>
         <v>190</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
-        <v>99999</v>
+        <f>IF(AND(J19&gt;0,MOD(J19,4)=2),J19,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N19">
+        <f>IF(AND(H19&gt;0,MOD(H19,4)=3),H19,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O19">
+        <f>IF(AND(I19&gt;0,MOD(I19,4)=3),I19,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P19">
+        <f>IF(AND(J19&gt;0,MOD(J19,4)=3),J19,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q19">
+        <f>IF(AND(H19&gt;0,MOD(H19,4)=1),H19,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R19">
+        <f>IF(AND(I19&gt;0,MOD(I19,4)=1),I19,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S19">
+        <f>IF(AND(J19&gt;0,MOD(J19,4)=1),J19,9999)</f>
+        <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>348</v>
       </c>
@@ -1851,46 +2304,78 @@
         <v>506</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($G20-D20)</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
+        <f>ABS($G20-E20)</f>
         <v>262</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f>ABS($G20-F20)</f>
         <v>72</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
+        <f>IF(AND(H20&gt;0,MOD(H20,4)=2),H20,99999)</f>
         <v>99999</v>
       </c>
       <c r="L20">
-        <f t="shared" si="6"/>
+        <f>IF(AND(I20&gt;0,MOD(I20,4)=2),I20,99999)</f>
         <v>262</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
-        <v>99999</v>
+        <f>IF(AND(J20&gt;0,MOD(J20,4)=2),J20,99999)</f>
+        <v>99999</v>
+      </c>
+      <c r="N20">
+        <f>IF(AND(H20&gt;0,MOD(H20,4)=3),H20,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="O20">
+        <f>IF(AND(I20&gt;0,MOD(I20,4)=3),I20,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="P20">
+        <f>IF(AND(J20&gt;0,MOD(J20,4)=3),J20,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="Q20">
+        <f>IF(AND(H20&gt;0,MOD(H20,4)=1),H20,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="R20">
+        <f>IF(AND(I20&gt;0,MOD(I20,4)=1),I20,9999)</f>
+        <v>9999</v>
+      </c>
+      <c r="S20">
+        <f>IF(AND(J20&gt;0,MOD(J20,4)=1),J20,9999)</f>
+        <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G21">
         <f>MOD(SUM(G1:G20),4)</f>
         <v>2</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <f>MIN(K1:M20)</f>
         <v>190</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <f>SUM(G1:G20)-M21</f>
         <v>18284</v>
       </c>
+      <c r="Q21" s="3">
+        <f>41+33</f>
+        <v>74</v>
+      </c>
+      <c r="S21" s="2">
+        <f>SUM(G1:G20)-Q21</f>
+        <v>18400</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:G20">
+  <sortState ref="A1:S20">
     <sortCondition descending="1" ref="G1:G20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
